--- a/jpcore-r4/feature/swg26-diaglosticreport対応/ValueSet-jp-diagnosticreportcategory-vs.xlsx
+++ b/jpcore-r4/feature/swg26-diaglosticreport対応/ValueSet-jp-diagnosticreportcategory-vs.xlsx
@@ -7,13 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from JP Core Document" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from LOINC" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
   <si>
     <t>Property</t>
   </si>
@@ -105,34 +105,46 @@
     <t>Concept</t>
   </si>
   <si>
-    <t>58477-1</t>
-  </si>
-  <si>
-    <t>肺機能検査報告書</t>
-  </si>
-  <si>
-    <t>76641-0</t>
-  </si>
-  <si>
-    <t>脳神経検査報告書</t>
-  </si>
-  <si>
-    <t>77199-8</t>
-  </si>
-  <si>
-    <t>PWV-CABI-ABI 報告書</t>
-  </si>
-  <si>
-    <t>18745-0</t>
-  </si>
-  <si>
-    <t>心カテ報告書</t>
-  </si>
-  <si>
-    <t>18748-4</t>
-  </si>
-  <si>
-    <t>画像検査報告書</t>
+    <t>LP29684-5</t>
+  </si>
+  <si>
+    <t>放射線</t>
+  </si>
+  <si>
+    <t>LP7839-6</t>
+  </si>
+  <si>
+    <t>病理</t>
+  </si>
+  <si>
+    <t>LP7796-8</t>
+  </si>
+  <si>
+    <t>内視鏡</t>
+  </si>
+  <si>
+    <t>LP29693-6</t>
+  </si>
+  <si>
+    <t>検体検査</t>
+  </si>
+  <si>
+    <t>LP29708-2</t>
+  </si>
+  <si>
+    <t>循環器</t>
+  </si>
+  <si>
+    <t>LP31795-1</t>
+  </si>
+  <si>
+    <t>歯科口腔</t>
+  </si>
+  <si>
+    <t>LP7819-8</t>
+  </si>
+  <si>
+    <t>微生物検査</t>
   </si>
   <si>
     <t/>
@@ -141,7 +153,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/core/CodeSystem/JP_DocumentCodes_CS</t>
+    <t>http://loinc.org</t>
   </si>
 </sst>
 </file>
@@ -410,7 +422,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -473,15 +485,31 @@
         <v>40</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/feature/swg26-diaglosticreport対応/ValueSet-jp-diagnosticreportcategory-vs.xlsx
+++ b/jpcore-r4/feature/swg26-diaglosticreport対応/ValueSet-jp-diagnosticreportcategory-vs.xlsx
@@ -8,12 +8,18 @@
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Include from LOINC" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from LOINC 2" r:id="rId5" sheetId="3"/>
+    <sheet name="Include from LOINC 3" r:id="rId6" sheetId="4"/>
+    <sheet name="Include from LOINC 4" r:id="rId7" sheetId="5"/>
+    <sheet name="Include from LOINC 5" r:id="rId8" sheetId="6"/>
+    <sheet name="Include from LOINC 6" r:id="rId9" sheetId="7"/>
+    <sheet name="Include from LOINC 7" r:id="rId10" sheetId="8"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="42">
   <si>
     <t>Property</t>
   </si>
@@ -102,58 +108,43 @@
     <t>BooleanType[null]</t>
   </si>
   <si>
-    <t>Concept</t>
+    <t>Operation</t>
+  </si>
+  <si>
+    <t>concept</t>
+  </si>
+  <si>
+    <t>=</t>
   </si>
   <si>
     <t>LP29684-5</t>
   </si>
   <si>
-    <t>放射線</t>
+    <t/>
+  </si>
+  <si>
+    <t>System URI</t>
+  </si>
+  <si>
+    <t>http://loinc.org</t>
   </si>
   <si>
     <t>LP7839-6</t>
   </si>
   <si>
-    <t>病理</t>
-  </si>
-  <si>
     <t>LP7796-8</t>
   </si>
   <si>
-    <t>内視鏡</t>
-  </si>
-  <si>
     <t>LP29693-6</t>
   </si>
   <si>
-    <t>検体検査</t>
-  </si>
-  <si>
     <t>LP29708-2</t>
   </si>
   <si>
-    <t>循環器</t>
-  </si>
-  <si>
     <t>LP31795-1</t>
   </si>
   <si>
-    <t>歯科口腔</t>
-  </si>
-  <si>
     <t>LP7819-8</t>
-  </si>
-  <si>
-    <t>微生物検査</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>System URI</t>
-  </si>
-  <si>
-    <t>http://loinc.org</t>
   </si>
 </sst>
 </file>
@@ -422,7 +413,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -434,10 +425,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
         <v>29</v>
       </c>
-      <c r="B1" t="s" s="1">
-        <v>22</v>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="2">
@@ -447,10 +441,13 @@
       <c r="B2" t="s" s="2">
         <v>31</v>
       </c>
+      <c r="C2" t="s" s="2">
+        <v>32</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s" s="2">
         <v>33</v>
@@ -464,52 +461,334 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s" s="2">
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
         <v>36</v>
       </c>
-      <c r="B5" t="s" s="2">
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
         <v>37</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="s" s="2">
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="B6" t="s" s="2">
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
         <v>39</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="s" s="2">
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="B7" t="s" s="2">
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>46</v>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
